--- a/Assets/Tests/Editor/Gacha2.xlsx
+++ b/Assets/Tests/Editor/Gacha2.xlsx
@@ -145,7 +145,7 @@
     <t>Group4</t>
   </si>
   <si>
-    <t>Array&lt;Boolean&gt;</t>
+    <t>List&lt;Boolean&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
